--- a/cardDB.xlsx
+++ b/cardDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaoyu\Desktop\software proj\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D23BB3-D66F-40E7-9F09-51FD5F6189C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7AC01B-0BA8-43A8-B78E-D86AD42E404B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="350">
   <si>
     <t>Claim by Jacob Wohl: “Racist picture of Democrat North Carolina Governor Roy Cooper emerges just days after he called on Ralph Northam to resign – DAILY MAIL.”</t>
   </si>
@@ -858,6 +858,377 @@
   </si>
   <si>
     <t>Food</t>
+  </si>
+  <si>
+    <t>Osman Sapian resigns as Johor Menteri Besar: Mahathir</t>
+  </si>
+  <si>
+    <t>definite truth</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com</t>
+  </si>
+  <si>
+    <t>https://www.straitstimes.com/asia/se-asia/osman-sapian-has-tendered-resignation-as-johor-menteri-besar-mahathir-says</t>
+  </si>
+  <si>
+    <t>PUTRAJAYA - Datuk Osman Sapian has tendered his resignation as Johor's Menteri Besar, Prime Minister Mahathir Mohamad told the media on Tuesday.
+"The Johor MB resigned yesterday via a letter to me and I will send the letter to the Johor Sultan," he told reporters at a news conference at the lobby of Parliament on Tuesday, as quoted by The Star online news.
+"For now, Johor has no menteri besar," he added.
+Mr Osman was sworn in as chief minister of the southern Malaysian state 11 months ago, becoming the first non-Umno menteri besar for Johor.
+Reporters had noted Mr Osman's absence at the meeting, and instead found that another top Johor official, Dr Sahruddin Jamal, was listed as part of the state delegation, Malay Mail online news reported.
+Johor Crown Prince Tunku Ismail Sultan Ibrahim on Tuesday tweeted that his father, the Johor ruler, had wanted to replace Mr Osman for some "Months".
+The Star online news said it was understood that the Johor ruler was dissatisfied with the way Mr Osman had handled the Sungai Kim Kim chemical spill, which saw the closure of 111 schools in Pasir Gudang and hundreds of people affected by the toxic gas caused by the spill.</t>
+  </si>
+  <si>
+    <t>Burger King's chopsticks ad is just the latest example of racist branding</t>
+  </si>
+  <si>
+    <t>https://www.straitstimes.com/world/united-states/burger-kings-chopsticks-ad-is-just-the-latest-example-of-branding-gone-wrong</t>
+  </si>
+  <si>
+    <t>WASHINGTON - Burger King wanted to promote a burger inspired by Asian flavours.
+The fast-food chain's video clip showed diners very awkwardly trying to eat its new Vietnamese Sweet Chilli Tendercrisp burgers with giant red chopsticks.
+Burger King deleted the video and issued an apology.
+The ad gained attention after Maria Mo, a New Zealander of Korean descent, mocked Burger King in a viral Twitter thread, writing that "Chopsticks r hilarious" and that "Orientalism is harmless funnnn".
+She couldn't believe that anyone would run such an ad in 2019 or that it could be approved by a company as dominant as Burger King.
+Even the burger missed a mark, Mo said, because sweet chili sauce is more common in Thai cuisine than Vietnamese.
+Plus, another one of Burger King's Japanese-branded chicken burgers was described as "Tonkatsu", even though "Tonkatsu" translates to fried pork.</t>
+  </si>
+  <si>
+    <t>https://www.straitstimes.com/singapore/health/at-least-three-cases-of-candida-auris-infection-detected-in-singapore-since-2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 3 cases of super fungus Candida auris infection detected in Singapore since 2012; all 3 treated at SGH
+</t>
+  </si>
+  <si>
+    <t>At Least 3 Cases Of Super Fungus Candida Auris Infection Detected In Singapore Since 2012; All 3 Treated At SGH, Health News &amp; Top Stories
+SINGAPORE - At least three people in Singapore were found to be infected with Candida auris, a deadly drug-resistant fungus that has been spreading worldwide.
+One patient recovered, another left Singapore against medical advice, and the last died.
+All three were treated at Singapore General Hospital.
+Dr Ling Moi Lin, director of infection prevention and epidemiology at SGH, said all three patients were isolated immediately after they were found to be infected with C. auris.
+Dr Ling said: "Patients carrying resistant organisms such as Candida auris are immediately isolated in the Isolation Ward, and upon discharge, the rooms are subjected to terminal cleaning and disinfection of the environment is carried out with ultraviolet C or hydrogen peroxide vapour treatment."
+C. auris is resistant to major antifungal medications and is especially deadly for patients with compromised immune systems, the New York Times reported.
+The first case in Singapore was detected in a 52-year-old Singapore-born woman who suffered several limb fractures following a traffic accident in India in 2012.</t>
+  </si>
+  <si>
+    <t>Jokowi aide blasts Prabowo's 'lies' on corruption</t>
+  </si>
+  <si>
+    <t>Indonesian presidential candidate Prabowo pledges good governance in war on graft</t>
+  </si>
+  <si>
+    <t>Indonesia votes: Defaced posters a sign of political fervour in West Java</t>
+  </si>
+  <si>
+    <t>They bob and dance as Jokowi oozes 'love' during Batam rally</t>
+  </si>
+  <si>
+    <t>Indonesia votes: Record 3,200 women vie for 575 seats</t>
+  </si>
+  <si>
+    <t>Indonesian presidential candidate Prabowo campaigns in West Java, seeking 90 per cent support in Ciamis</t>
+  </si>
+  <si>
+    <t>Creative citizens add dash of rhythm and rhyme to campaigns</t>
+  </si>
+  <si>
+    <t>A close finish to Indonesia's presidential race?</t>
+  </si>
+  <si>
+    <t>Forest fires become burning issue as Indonesia's election fight heats up</t>
+  </si>
+  <si>
+    <t>Millennials could hold the key in Indonesia's elections</t>
+  </si>
+  <si>
+    <t>Indonesia's presidential poll casts shadow over legislative races</t>
+  </si>
+  <si>
+    <t>Indonesia elections: Will Ma'ruf Amin's current push for moderate Islam hold?</t>
+  </si>
+  <si>
+    <t>Gloves come off as Indonesian Presidential election polling day looms</t>
+  </si>
+  <si>
+    <t>Indonesia votes: Defaced posters a sign of political fervour in West Java.1</t>
+  </si>
+  <si>
+    <t>Jokowi tackles Prabowo in rival's own stronghold</t>
+  </si>
+  <si>
+    <t>Hard fight for battleground state of South Sulawesi</t>
+  </si>
+  <si>
+    <t>Voters in North Sumatra hope for president who can keep the peace</t>
+  </si>
+  <si>
+    <t>Jokowi tipped to win in East Java despite changing dynamics</t>
+  </si>
+  <si>
+    <t>Indonesia votes: 6 things to know about the April 17 polls</t>
+  </si>
+  <si>
+    <t>Indonesia votes: Who are running for president and vice-president?</t>
+  </si>
+  <si>
+    <t>Indonesia votes: What are the hot-button issues for the April 17 polls?</t>
+  </si>
+  <si>
+    <t>Indonesia votes: Which parties are competing for Parliament seats?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'It's an economic referendum', says Indonesia's V-P candidate Sandiaga Uno </t>
+  </si>
+  <si>
+    <t>Jokowi's running mate Ma'ruf Amin 'good for Indonesia'</t>
+  </si>
+  <si>
+    <t>Record number of women candidates in Indonesia's legislative election, but challenges remain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia votes: Ending poverty in East Java is Khofifah Indar Parawansa’s goal as governor </t>
+  </si>
+  <si>
+    <t>Hiroshima hopes to find a new Calbee, Daiso or Mazda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cattle chaos: Indian farmers make their problem 'herd' </t>
+  </si>
+  <si>
+    <t>Australian winegrowers putting sunscreen on grapes</t>
+  </si>
+  <si>
+    <t>Greater Bay Area - boon or bane for Hong Kong's future?</t>
+  </si>
+  <si>
+    <t>Malaysia's Proton revs up revival with hot-selling SUV</t>
+  </si>
+  <si>
+    <t>Asian Insider April 9: Good fences make good neighbours</t>
+  </si>
+  <si>
+    <t>Putting country above politics: Jakarta Post</t>
+  </si>
+  <si>
+    <t>Anwar's smooth political transition in sight: The Star columnist</t>
+  </si>
+  <si>
+    <t>Singapore, KL to work out six-month rail link suspension</t>
+  </si>
+  <si>
+    <t>Modi's party unveils manifesto with something for everyone</t>
+  </si>
+  <si>
+    <t>China set to dazzle with giant show of flower power</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/jokowi-aide-blasts-prabowos-lies-on-corruption</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/indonesian-presidential-candidate-prabowo-pledges-good-governance-in-war-on-graft</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/indonesia-votes-defaced-posters-a-sign-of-political-fervour-in-west-java</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/world/they-bob-and-dance-as-jokowi-oozes-love-during-batam-rally</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/world/record-3200-women-vie-for-575-seats</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/indonesian-presidential-candidate-prabowo-campaigns-in-west-java-seeking-90-per-cent</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/creative-citizens-add-dash-of-rhythm-and-rhyme-to-campaigns</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/a-close-finish-to-indonesias-presidential-race</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/forest-fires-become-burning-issue-as-indonesias-election-fight-heats-up</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/millennials-could-hold-the-key-in-indonesias-elections</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/indonesias-presidential-poll-casts-shadow-over-legislative-races</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/opinion/will-maruf-amins-current-push-for-moderate-islam-hold</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/gloves-come-off-as-indonesian-presidential-election-polling-day-looms</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/jokowi-tackles-prabowo-in-rivals-own-stronghold</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/hard-fight-for-battleground-state-of-south-sulawesi</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/wanted-president-who-can-keep-the-peace</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/jokowi-tipped-to-win-in-e-java-despite-changing-dynamics</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/indonesia-votes-6-things-to-know-about-the-april-17-polls</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/indonesia-votes-who-are-running-for-president-and-vice-president</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/indonesia-votes-what-are-the-hot-button-issues-for-the-april-17-polls</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/indonesia-votes-which-parties-are-competing-for-parliament-seats</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/its-an-economic-referendum</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/maruf-amin-good-for-indonesia</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/record-number-of-women-candidates-in-indonesias-legislative-election-but-challenges</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/ending-poverty-in-east-java-her-goal-as-governor</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/east-asia/hiroshima-hopes-to-find-a-new-calbee-daiso-or-mazda</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/south-asia/cattle-chaos-indian-farmers-make-their-problem-herd</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/australianz/field-notes-australian-winegrowers-putting-sunscreen-on-grapes</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/world/greater-bay-area-boon-or-bane-for-hong-kongs-future</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/malaysias-proton-revs-up-revival-with-hot-selling-suv</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/asian-insider-april-9-good-fences-make-good-neighbours</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/putting-country-above-politics-jakarta-post</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/se-asia/anwars-smooth-political-transition-in-sight-the-star-columnist</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/singapore/spore-kl-to-work-out-six-month-rail-link-suspension</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/south-asia/modis-party-unveils-manifesto-with-something-for-all</t>
+  </si>
+  <si>
+    <t>www.straitstimes.com/asia/east-asia/china-set-to-dazzle-with-giant-show-of-flower-power</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JAKARTA - A senior minister and close aide to President Joko Widodo, who is seeking re-election, has blasted former army general Prabowo Subianto for lying about corruption in a campaign rally on Sunday. Mr Prabowo, who is Mr Jokowi's sole rival in the presidential election on April 17, charged that the people were being "Robbed" because of corruption.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MAJALENGKA - The thought of what Indonesia could have done with the trillions of rupiah suspected to have been pocketed by corrupt government officials over the years is heartbreaking for Mr Prabowo Subianto. These purported losses in the state budget, which by certain estimates may amount to 2,000 trillion rupiah annually, according to Mr Prabowo, could have funded development programmes, created jobs and help Indonesians prosper.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Even before casting their votes next week, some in this West Java city have made their choice known. Instead of marking ballot papers, they vandalised presidential campaign posters of incumbent candidate Joko Widodo and his running mate, senior cleric Ma'ruf Amin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Indonesian island of Batam, just a ferry ride away from Singapore, transformed into a carnival of colours and music yesterday as President Joko Widodo flew in for a rally less than two weeks before the election. Upbeat campaign songs, from "Goyang Jempol, Jokowi Gaspol", which roughly means "Shake a thumb, Jokowi at full throttle" in Bahasa Indonesia, to "Jokowi Wae", or "Just Jokowi" in the Javanese language, blared from speakers. "Yo yo Ayo, yo Ayo, we will choose Jokowi who will certainly win," sang housewife Iswanti, 45, as she twirled, a toddler hanging onto her leg. "I'm drenched, my shirt is drenched, my trousers are also drenched. Batam is extraordinary. I wouldn't be in Batam if not for love," he said. A free trade zone and home to hundreds of companies, including shipyards and electronics factories, Batam has faced stagnant growth and falling investments in recent years. Mr Joko reiterated his pledge yesterday, and promised to get a team ready next month to look into details of a bridge project linking Batam and nearby Bintan to boost connectivity in the Riau Islands. Batam resident Surya, 20, said: "Jokowi is a good and honest man. His work speaks for itself, and in Batam, we can definitely see progress. He deserves to become our president again."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For the past six months, Ms Tsamara Amany has been hitting the campaign trail in Jakarta, meeting constituents, some more than four times her age, as she contests for a seat in Indonesia's Parliament. At age 22, the politician from the fledgling Indonesian Solidarity Party, which was founded in 2014, belongs to an emerging group of young women in Indonesia who are pursuing a career in politics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A crowd had gathered as the helicopter carrying presidential hopeful Prabowo Subianto made its descent on Saturday towards a football field in Cikoneng district, Ciamis regency, in West Java. Hundreds of adults and students, clad in brown boy scout uniforms, reached out to touch the candidate's hands when they saw him, while chanting in unison, "Prabowo, Prabowo." A laid-back territory with about 1.4 million residents, which shares a border with Central Java, clearly is a special place for Mr Prabowo. During the rally, which kicked off at around 10.30am, Mr Prabowo promised, if elected, to cut electricity costs within his first 100 days in office, to lift the wages of civil servants and build factories for made-in-Indonesia cars to create jobs in the longer term. On the sidelines of the rally, some people, including a representative from his youth supporter group Indonesian Millennial Movement and a local breeder, were handing donations to Mr Prabowo. On the return flight to Jakarta from West Java, Mr Prabowo told The Straits Times that one way to eradicate corruption was for the central government to have a tighter rein on the state budget and to raise the salaries of high-profile officials, such as ministers and judges. With less than two weeks to go before the polls, Mr Prabowo and his running mate, former deputy governor of Jakarta, Mr Sandiaga Uno, has made some inroads in opinion polls although most surveys still show that Mr Joko, who has chosen cleric Ma'ruf Amin as his running mate, will be re-elected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The phrase, which is also the song title, loosely means "Shake the thumb, Jokowi is at full throttle". As the electoral race nears a crescendo, creative Indonesians - from musicians and millennial singer wannabes to middle-aged housewives - are cheering for their candidates with dances and songs on the streets and on the Internet. RINGS A BELL. In the voting booth, when people have only a minute or two to make a choice, they tend to remember candidates with unique songs. INDONESIAN MUSIC EXPERT BENS LEO. "In the voting booth, when people have only a minute or two to make a choice, they tend to remember candidates with unique songs," he added. For 43-year-old rapper Marzuki Mohamad, whose stage name is Kill the DJ, the "Goyang Jempol" song was his way of adding fun to a "Long, boring election campaign flooded with fake news". "Music makes people happy. Let's fight all these political hoaxes and lies with joget-joget instead," said Mr Marzuki with a laugh. Most importantly, many hope the buzz they have created through their songs and dances will get Indonesians on their feet and trooping to the polling stations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The latest pre-election survey out yesterday shows support for President Joko Widodo falling below 50 per cent and his rivals gaining significant ground, with polling day less than a month away. In the survey conducted by Kompas, Indonesia's largest newspaper, the electability of Mr Joko and his vice-presidential candidate, Dr Ma'ruf Amin, dropped to 49.2 per cent, from 52.6 per cent six months ago. In contrast, support for presidential hopeful Prabowo Subianto and his running mate Sandiaga Uno rose to 37.4 per cent, up almost five points from the previous survey by Kompas released last October.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JAKARTA - A day after Indonesia's two presidential candidates went head-to-head on issues ranging from the economy to the environment, campaign managers from both camps exchanged heated arguments on Monday, and one topic that stood out was forest fire mitigation. "He said no more forest fires but the facts on the ground clearly refuted that," he told the popular Elshinta Radio station. "In August 2018, schools in Pontianak, West Kalimantan were temporarily shut due to forest fire." Public and private schools in Pontianak were ordered last year by its West Kalimantan provincial government to close for three days from Aug 20 as the provincial capital was shrouded by choking haze from uncontrolled forest and plantation fires nearby. Senior politician Lukman Edy, representing Mr Joko's campaign team, responded by explaining that what Mr Joko meant to say was that the current administration managed to reduce forest and plantation fires by introducing stricter law enforcement and prevention measures. "During Jokowi's tenure, forest fires have been handled quickly and the problem did not persist," Mr Lukman argued, pointing out that during Mr Joko's tenure the administration only witnessed one major fire in 2015, while previously such fires were annual events. "We almost never have forest fires any more. Lately, there were hot spots emerging, but firefighting teams promptly handled them. Forest fires are unavoidable, but the government now is there to deal with them, so the problem does not drag on."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They comprise a sizeable voter bloc and have been touted as a possible game changer for the forthcoming elections in Indonesia. The problem is that nobody knows how they will vote or if they will turn up to vote.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For years, senior Islamic cleric Ma'ruf Amin has been one of the architects behind controversial religious rulings in Indonesia that critics say have oppressed minorities, but since he was unveiled as incumbent Joko Widodo's running mate in the upcoming presidential polls, Dr Ma'ruf seems to have started singing a different tune. The testimony provided by the chairman of the Indonesian Ulama Council, the country's top Islamic clerical body, two years back helped place Jakarta's Chinese-Christian governor Basuki Tjahaja Purnama behind bars for blasphemy against Islam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The gloves are off as the rival camps of presidential candidates Joko Widodo and Prabowo Subianto engage in an escalating war of words, with polling day in Indonesia less than eight weeks away. Although they have been trading barbs for months, it took a more personal turn of late, with President Joko taking a jab at his opponent's vast land ownership in a bid to defend his administration's extensive land distribution scheme.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In Banten, the former general garnered 57.1 per cent of the votes to Mr Joko's 42.9 per cent. Mr Mulyadi Jayabaya, an adviser to the Joko-Ma'ruf campaign in Lebak regency, said that based on the latest survey, the electability of Mr Joko, popularly known as Jokowi, and Dr Ma'ruf reached 54 per cent recently. The former regent of Lebak aims to help the Joko-Ma'ruf ticket win 70 per cent of the votes in the regency, which makes up a sizeable portion of Banten province. Instead, a survey late last year saw Mr Joko and Dr Ma'ruf polling less than the 43 per cent of votes the President garnered when he won the 2014 election, while Mr Prabowo added two points to the 57 per cent he received back then. Surveys this week show that the Joko-Ma'ruf ticket is ahead nationally, with Vox Populi Research Centre indicating a vote share of 54.1 per cent, with Mr Prabowo and his running mate Sandiaga Uno behind on just 33.6 per cent. Another pollster, Charta Politika, shows the Joko-Ma'ruf ticket with 53.6 per cent, against 35.4 per cent for the Prabowo-Sandiaga ticket. In contrast, the Joko-Ma'ruf camp saw its electability decline to 49.2 per cent, from 52.6 per cent six months ago.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At the Azzahrah cafe in South Sulawesi's capital of Makassar, Mujaharin, 40, unwinds with a steady string of cigarettes punctuated with coffee served up with dollops of condensed milk. Fresh off the night shift from the hospital where he works as a cashier, Mr Mujaharin, who uses one name, said his choice for president in 2014 was easy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> East Java was where the fabled battle of Surabaya - a turning point in the fight for Indonesia's independence - took place in 1945. Today, the province which has 30.9 million voters is a key battleground for President Joko Widodo as he seeks a second term in office at the April 17 polls.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indonesia is the world's third-largest democracy after the United States and India, but the 2019 presidential race will be only the fourth time the South-east Asian giant is holding elections to pick its head of state. The first direct presidential election took place in 2004, and the first round of elections across Indonesia for all governors, mayors and district heads was completed in 2008. In January 2015, a new Parliament overturned this decision, voting instead to retain the elections Bill that ensured direct elections for regional governors and mayors. The results of the elections for parliamentary seats will determine which political parties can nominate candidates to contest the 2024 presidential election. First debate for the Presidential Election: Mr Widodo and Dr Ma'ruf v Mr Prabowo and Mr Sandiaga on law, human rights, terrorism and corruption. Second debate for the Presidential Election: Mr Widodo v Mr Prabowo on infrastructure, energy, food, natural resources and the environment. Fourth debate for the Presidential Election: Mr Widodo v Mr Prabowo on ideology, governance, international relations, and defence and security.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JAKARTA - When Indonesians cast their votes on April 17, all eyes will be on the main contest between incumbent President Joko Widodo and retired army general Prabowo Subianto, in what is expected to be a tight rematch of the 2014 presidential polls. On the surface, Mr Joko remains a popular figure, rarely ever losing his place at the top of nationwide electability surveys, leading many pundits to say that the upcoming election is the President's to lose. Such issues had plagued the last Jakarta election when the incumbent Basuki Tjahaja Purnama, who is Chinese and Christian, and a close ally of Mr Joko, lost to Muslim rivals backed by Mr Prabowo. With his long service in the military and deep ties to the business and political elites - he was married to one of former president Suharto's daughters, and his father was a minister and central bank chief - Mr Prabowo, a former army general, is Mr Joko's polar opposite. Former president Megawati Soekarnoputri, who is also the daughter of Indonesia's founding president Sukarno, later picked Mr Prabowo as her running mate for the race, which they eventually lost to then President Susilo Bambang Yudhoyono. The former businessman - who in 2013 was ranked the 47th richest man in Indonesia - made his foray into politics in 2015, and quickly charted a meteoric rise through the ranks of Mr Prabowo's Gerindra party. So while observers remain divided on whether Dr Ma'ruf is helping or hindering Mr Joko's electoral prospects, a common view is that Mr Prabowo has the better running mate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr Joko had after all promised 7 per cent economic growth and has vowed once more in his current campaign to help Indonesia achieve stronger economic growth. Ahead of the April polls, the same Islamist groups that brought about Mr Basuki's downfall have called on Muslims to vote against Mr Joko - one of Mr Basuki's allies - and the political parties that backed the former governor. As campaigning heats up ahead of the April 17 polls, attempts at misinformation have already begun: false claims that Mr Sandiaga has called local athletes "Physically weak" have been circulated online, and rumours that cropped up in the 2014 campaign of Mr Joko being a closet Christian and Communist sympathiser have been resurrected. The seven containers from China were said to have been filled with votes for Mr Joko - a claim that met with swift rebuttal from the president, who called it a hoax and pointed out that ballots had yet to be printed. HUMAN RIGHTS. Human rights was one of the hotly-anticipated topics set for the first presidential debate on Jan 17 - but both Mr Joko and Mr Prabowo danced around the issue, with neither delving into the ways that unresolved cases of human rights violations could be put to rest. Non-government organisation Commission for Missing Persons and Victims of Violence said Indonesia has, during Mr Joko's term, gone backwards on a range of human rights issues, from the use of the death penalty to disability rights and the persecution of indigenous peoples and minorities. "President Jokowi is a president who prioritises economic development over all other agendas. The human rights agenda is not considered important, and has been sidelined," said Amnesty International Indonesia executive director Usman Hamid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The biggest party in the current Parliament is the ruling Indonesian Democratic Party of Struggle with 109 out of 560 seats, or just under 20 per cent of the House. GREAT INDONESIA MOVEMENT PARTY. The secular and nationalist party, formed by Mr Prabowo in 2008 after leaving Golkar, seeks to build a just and prosperous Indonesia. PARTY OF THE FUNCTIONAL GROUPS. The oldest operating party in Indonesia has pushed for economic development through liberalisation. The secular and nationalist party holds 91 seats in Parliament. CHANGE INDONESIA MOVEMENT PARTY. A rookie party that will make its debut in the 2019 elections, and is looking to target young voters. INDONESIAN UNITY PARTY. It was founded in 2015 by media tycoon Hary Tanoesoedibjo after his short-lived stints in two other political parties, with the vision of making Indonesia a progressive, fair and prosperous nation. UNITED DEVELOPMENT PARTY. It was formed in 1973 through the forced merger of four Islamic parties when then-President Suharto's government carried out a restructuring of the political party system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JAKARTA If the Indonesian presidential election were a marathon, Sandiaga Uno is two water stops away from the finishing line. "We're in the final quarter of the race," says Mr Sandiaga, an avid runner who has lost count of the number of marathons he has done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A record number of women are vying to become MPs in Indonesia's legislative election next month, but they continue to face an uphill battle to make their voices heard. A total of 3,194 female candidates are in the running for 575 seats in the country's House of Representatives, making up 40 per cent of nearly 8,000 legislative hopefuls - a historic high.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ms Khofifah Indar Parawansa, 53, has the honour of being the first woman to be elected East Java governor, following last year's regional polls in which she and her running mate Emil Dardak garnered 53.5 per cent of the votes. At their swearing-in ceremony last month, Indonesian President Joko Widodo set the task for the duo in simple terms - "As fast as possible, step on the gas to serve the people".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr Kazuyuki Sueoka rues the damage to lemon trees on his family farm due to landslides triggered by unprecedented heavy rains last July that lashed western Japan, including mountainous Hiroshima prefecture. The 68-year-old is a sixth-generation farmer whose family has been growing lemons in the port city of Kure for 120 years. More than 10 per cent of the trees on his 1.5ha farm were washed away, he said, adding: "The only way is to plant new trees, but they will not produce fruit for at least five years."</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GAUTAM BUDH NAGAR For many years, the only uninvited guests on Mr Bijender Vikal's farm were winter migratory birds. They included storks and cranes that would wade harmlessly through his field, feeding on insects and rodents. For the last few years he has been busy fending off visitors of an unwelcome, destructive kind: stray cattle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SYDNEY At a vineyard in Australia's Hunter Valley, where his family have been making wine since the 1860s, Mr Bruce Tyrrell realised several years ago that he would need to find ways to ensure his grapes could survive in the increasingly warm and dry weather. Five years ago - and exactly 150 years after the winery had its first vintage - Mr Tyrrell decided to adopt a novel solution: applying sunscreen on the grapes. He admits that his ancestors may have found the technique surprising but notes that growers have long known that "If you don't adapt, you die".</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HONG KONG It seems like a no-brainer for the Hong Kong government to place its bets on Beijing's ambitious plan to turn cities in southern China into a world-class cluster of economic activity and innovation as the city moves to diversify its economy - one that is open and easily susceptible to external headwinds. Despite protests from critics who dismiss the Greater Bay Area plan as a way to turn Hong Kong into just another Chinese city through integration with the mainland, the territory's gamble on the initiative, led by Chinese President Xi Jinping, may eventually pay off not just economically but also politically when it takes off, some observers believe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Once-ailing Malaysian carmaker Proton is seeing a turn in its fortunes since its Chinese partner Geely brought the X70 sport utility vehicle to the Malaysian market last December. The X70 - a rebadged version of Geely's Boyue - now makes up over half of Proton's sales, with more than 20,000 cars booked as at end-February and waiting times extending up to three months. Proton is already expanding its plant in Perak to cope with producing new car models and upgrading its service centres nationwide. "It's a Proton car but it's also not really a Proton car at the same time. There's a different expectation for the X70," said Mr Alexander Teoh, 40, a human resources manager. In June 2017, when Geely acquired a 49.9 per cent stake in Proton - the balance is held by local conglomerate DRB-Hicom - the move was severely criticised by Tun Dr Mahathir Mohamad. Proton was Dr Mahathir's brainchild during his first stint as prime minister from 1981 to 2003, and he described the 2017 deal brokered by the Najib Razak administration as bad for the country. Proton ranked fourth in total vehicle sales last year, behind Perodua, Honda and Toyota. Another automotive analyst said the technology injection into Proton is more advanced than what is available in the current Malaysian market and could help the carmaker expand its market share.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Today: Leaders of Singapore and Malaysia meet, China gears up for a massive horticultural show, the leaders of Hong Kong's Umbrella Movement are convicted and more. The big picture: As China Bureau Chief Tan Dawn Wei writes, this expo is a huge display of soft power in a year marking the 70th jubilee of the founding of the People's Republic of China as well as several sensitive anniversaries. Coming at a time when China's powerhouse economy seems to be slowing, it also serves as a show of economic might, proving once again that no one can put on a mega-event like China can. UMBRELLA MOVEMENT LEADERS FOUND GUILTY. Nine leaders behind Hong Kong's Umbrella movement were convicted today for their role in the 2014 mass rallies that brought the city to a standstill for months. Reaction: The "Occupy Central" leaders told the media that they had no regrets for what they had done and were prepared for the consequences. What were the rallies about? Occupy Central or the Umbrella Movement was a movement that organised a series of sit-in street protests calling for reform of the Hong Kong electoral system that supporters deemed to be overly controlled by the Chinese government. The full story: Hong Kong Umbrella Movement leaders found guilty for role in 2014 mass rallies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Gerindra Party's presidential candidate, Prabowo Subianto, desperate to play catch-up in the polls, has in recent weeks ramped up his attacks on the incumbent. Nothing illustrates better how Prabowo plays the Islamic card than Sunday's open-air campaign at the Gelora Bung Karno Stadium. On Sunday Yudhoyono took the moral high ground and delivered a stinging rebuke to Prabowo. In a written statement he delivered from Singapore, where he is tending to his cancer-stricken wife, Yudhoyono called on Prabowo to stand for "Unity in diversity" and said the campaign rally on Sunday did not reflect an inclusive national campaign. In spite of his stake in Prabowo's coalition, Yudhoyono's willingness to call a spade a spade is worthy of our praise. Any political candidates exploiting religion for a short-term gain should heed his call and start putting national unity above politics. The Jakarta Post is a member of The Straits Times media partner Asia News Network, an alliance of 23 news media organisations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> On Friday, despite his busy schedule, Anwar had a 40-minute meeting with Dr Mahathir. Earlier last week, when Dr Mahathir reiterated that "When I am done, Anwar will take over", Anwar had tweeted "Terima kasih, Tun". Mr Anwar understands the older man much better than the first time around and he genuinely wants to give Dr Mahathir the space to govern. His political secretary Farhash Wafa Salvador said Mr Anwar was known to avoid meeting such people. Mr Anwar has moved carefully around Dr Mahathir and it was only recently that he has started going down to the Malay ground after the clear-cut Malay rejection in the Semenyih by-election. According to Unisel vice-chancellor Redzuan Othman, Mr Anwar had spent most of last year travelling abroad to connect with old friends and to give the stage to Dr Mahathir. Mr Anwar, more than anyone else, wants a smooth transition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Singapore and Malaysia are working towards a supplementary agreement to suspend a cross-border rail link. These moves were announced by Singapore's Transport Minister Khaw Boon Wan at a news conference with his Malaysian counterpart Anthony Loke at Kuala Lumpur International Airport yesterday after they met to discuss bilateral transport matters. Singapore and Malaysia had last year agreed to a two-year suspension of the Kuala Lumpur-Singapore High Speed Rail Project, with Malaysia paying Singapore $15 million for abortive costs incurred due to the suspension. Asked if Malaysia will need to pay compensation to Singapore if the RTS project is suspended, Mr Loke said "There is some cost involved", and this will be determined by a review. The agreement paves the way for Malaysian carrier Firefly to begin flying into Singapore, more than four months after a suspension. Mr Loke said Firefly will resume its operations to Singapore on April 21. Mr Khaw said he assured Mr Loke that Singapore would approach the review with an open mind, bearing in mind the many stakeholders involved and the critical need to ensure safety and efficiency in a very busy airspace.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The ruling Bharatiya Janata Party yesterday unveiled a manifesto it said was inspired by the spirit of nationalism, in a bid to woo different segments of society just days before voters go to the polls. Referring to BJP's "Big plans" in the manifesto released at the party's headquarters in New Delhi, Mr Modi said two key pledges were housing for all by 2022 and the doubling of farmers' incomes. Mr Modi is widely seen as having the edge in the elections and opinion polls have largely predicted a win for the BJP. But the ruling party has also come under attack for failing to create enough jobs and to help farmers, a key voting bloc. The BJP manifesto listed commitment to national security as a top pledge to underline its importance in these elections following an outbreak of hostilities with Pakistan last month over the killing of 40 Indian soldiers in Kashmir in February. The manifesto said the BJP would continue the "Policy of zero tolerance against terrorism and will continue to follow our policy of giving a free hand to our security forces in combating terrorism". Senior Congress leader Ahmed Patel took a swipe at the BJP in his tweet: "For its 2019 manifesto, BJP has simply copy pasted its 2014 manifesto &amp; changed all previous deadlines from 2019 to 2022, 2032, 2047, 2097... Luckily they didn't shift any deadlines to the next century." Political analysts noted that it was largely a populist manifesto, with something for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> China has pulled out all the stops to create the largest horticultural expo on earth, its biggest show of soft power yet in a year marking several sensitive anniversaries, but also the 70th jubilee of the founding of the People's Republic of China. With just three weeks to go before President Xi Jinping and other world leaders arrive for the opening ceremony, work is going on round the clock at the 503ha grounds of the Beijing Expo, located in the town of Yanqing, over an hour's drive north-west of Beijing.</t>
   </si>
 </sst>
 </file>
@@ -939,7 +1310,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -973,6 +1344,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1313,10 +1697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="61" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="61" workbookViewId="0">
+      <selection activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2726,7 +3110,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="16" t="s">
         <v>156</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2748,9 +3132,1160 @@
         <v>158</v>
       </c>
     </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C56" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="12">
+        <v>43563</v>
+      </c>
+      <c r="D58" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H59" t="s">
+        <v>281</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H60" t="s">
+        <v>282</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D61" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H61" t="s">
+        <v>283</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H62" t="s">
+        <v>284</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D63" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H63" t="s">
+        <v>285</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D64" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H64" t="s">
+        <v>286</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D65" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H65" t="s">
+        <v>287</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C66" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D66" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H66" t="s">
+        <v>288</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H67" t="s">
+        <v>289</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H68" t="s">
+        <v>290</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D69" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H69" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H70" t="s">
+        <v>292</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D71" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H71" t="s">
+        <v>293</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D72" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H72" t="s">
+        <v>283</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H73" t="s">
+        <v>294</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D74" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H74" t="s">
+        <v>295</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D75" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H75" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H76" t="s">
+        <v>297</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D77" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H77" t="s">
+        <v>298</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H78" t="s">
+        <v>299</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D79" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H79" t="s">
+        <v>300</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D80" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H80" t="s">
+        <v>301</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D81" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H81" t="s">
+        <v>302</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C82" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D82" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H82" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H83" t="s">
+        <v>304</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D84" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H84" t="s">
+        <v>305</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C85" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D85" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H85" t="s">
+        <v>306</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D86" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H86" t="s">
+        <v>307</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D87" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H87" t="s">
+        <v>308</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C88" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D88" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H88" t="s">
+        <v>309</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D89" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H89" t="s">
+        <v>310</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D90" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H90" t="s">
+        <v>311</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D91" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H91" t="s">
+        <v>312</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D92" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H92" t="s">
+        <v>313</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C93" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D93" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H93" t="s">
+        <v>314</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D94" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H94" t="s">
+        <v>315</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C95" s="14">
+        <v>43556</v>
+      </c>
+      <c r="D95" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H95" t="s">
+        <v>316</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J58">
-    <sortCondition ref="B1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J100">
+    <sortCondition ref="D1"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="H40" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2827,8 +4362,11 @@
     <hyperlink ref="H29" r:id="rId72" xr:uid="{B51A2913-8AF7-4A95-889D-75E000964A87}"/>
     <hyperlink ref="H52" r:id="rId73" xr:uid="{298A135E-5E85-43E8-80D7-4E2BB7C14ADA}"/>
     <hyperlink ref="H11" r:id="rId74" xr:uid="{32244549-6809-4E5E-BC05-414BF4444A09}"/>
+    <hyperlink ref="H58" r:id="rId75" xr:uid="{2D16E638-AF5B-4784-81F0-41F8512CA8A7}"/>
+    <hyperlink ref="H56" r:id="rId76" xr:uid="{40E0B853-18AF-4286-9366-F65630847C98}"/>
+    <hyperlink ref="H57" r:id="rId77" xr:uid="{CF57091C-7236-444F-9DB7-EF2D7A9B918B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId75"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId78"/>
 </worksheet>
 </file>